--- a/Marketing/illinois.roomme.xlsx
+++ b/Marketing/illinois.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -440,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -590,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">

--- a/Marketing/illinois.roomme.xlsx
+++ b/Marketing/illinois.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">

--- a/Marketing/illinois.roomme.xlsx
+++ b/Marketing/illinois.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">

--- a/Marketing/illinois.roomme.xlsx
+++ b/Marketing/illinois.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>_kinakochii</t>
+          <t>rrr_____0812</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ronanfedak</t>
+          <t>sammy453276</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jojohall.2004</t>
+          <t>grant.naese</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>eo_slime04</t>
+          <t>achmadannis</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>christian.duffy1</t>
+          <t>austin_h_2</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>eldonxxi</t>
+          <t>yozyaoo</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gracewillham88</t>
+          <t>ari.ana8151</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>noah_hayes25</t>
+          <t>leeshan_2025</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zahraa.mundher</t>
+          <t>abhilashselvam</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>elise.coury</t>
+          <t>lqs527</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>annaa.lazarz</t>
+          <t>uiuc_parties</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>laurazhazira</t>
+          <t>2sistersparkridge</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rohan.fich</t>
+          <t>juliesuderman</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>men_lor23</t>
+          <t>highscore747</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tyrox32</t>
+          <t>laura.lee584</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>devon.lu</t>
+          <t>florh.ale</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>teaganfaulknerr</t>
+          <t>ding3605</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vedshah15</t>
+          <t>serena_my717</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>er_ica03</t>
+          <t>hanruishi</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mariaszwarczyk_</t>
+          <t>exam_24_due</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>notaadirao</t>
+          <t>thelboii_10</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>faha_rahber6</t>
+          <t>vivekgupt23</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>oliviazieba_</t>
+          <t>penexoxolope</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>audreyleemans</t>
+          <t>penrilla</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sydneyspilios</t>
+          <t>wagmanjames9</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jack_dohrn</t>
+          <t>mmwestphal9</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ayush_pathy</t>
+          <t>g.i.ks</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>will_taylor05</t>
+          <t>hiimdiego_05</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>jordyn.deleon</t>
+          <t>dasoury_habibi</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x_hamil10_x</t>
+          <t>stanche19</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>jashvin_0805</t>
+          <t>mynameiskogs</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lauryn_redd</t>
+          <t>juan_sanchez555</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>def_someone</t>
+          <t>weirdweirdlalalalala</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ethan_hendrickson4</t>
+          <t>bmarvell_</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>fered._</t>
+          <t>aryawu667</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>csclyt99</t>
+          <t>xia.papers13</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lucaswashor</t>
+          <t>briannnnn777</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>solosice</t>
+          <t>navabhi25601</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ben.guts</t>
+          <t>ringler5847</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hriday.shah4</t>
+          <t>jemima_hello</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>joshua_jinhee_kim</t>
+          <t>sarahschmarich</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>swethay24</t>
+          <t>ejang.it</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>alexxzzz30</t>
+          <t>ndevir31</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bri028</t>
+          <t>jigi1221</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>rylanshenefelt</t>
+          <t>lucy.spigel</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>xjashnani</t>
+          <t>irsesatish</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>lmagnan_26</t>
+          <t>sreeansh_vak</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>h.hayes_10</t>
+          <t>aly.maranan</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>selaklein</t>
+          <t>izzezschau</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>lizken95</t>
+          <t>crazyluvingmomster</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>lynnnanos</t>
+          <t>emilypeng4</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>x.breexy</t>
+          <t>jvampadu</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>schuttejibril</t>
+          <t>cubby1408</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>bradengutsch</t>
+          <t>jomomma1000</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>lily.smith.06</t>
+          <t>lewis__neur</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>biggucci_angelo</t>
+          <t>blakemischley</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>norahwatry</t>
+          <t>papermarkup</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>uiucalumni</t>
+          <t>emilyalvarado4072</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mayaajit_</t>
+          <t>kogo6290odt3vhol2</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>alfo.nso_777</t>
+          <t>mandellag3</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>destiny.a.denning</t>
+          <t>karind1230</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ben_mitch559</t>
+          <t>thetiedyerabbi</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bdhdbrhrvr_</t>
+          <t>minghuiwang9</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>balisoomal</t>
+          <t>_jacobb_kamm</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>michelle_martignon</t>
+          <t>moraa5472</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>navya_uiuc_socializing</t>
+          <t>sunnygoyal7</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>rykeltner12</t>
+          <t>brucefacebaby</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>makafinancial</t>
+          <t>samanthas_0309</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>emiliostarrantino_</t>
+          <t>hongshuwang6</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>eshaaggarwal1</t>
+          <t>cassidy_kang</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>noah.schechter</t>
+          <t>dobralaszloedgar</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>jack_legan</t>
+          <t>m.yang3108</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>kaylatriplett3</t>
+          <t>cindyreicin</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>joelpowersege</t>
+          <t>johnaldwhonald</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>q_swervoo24</t>
+          <t>eohsaaaggin</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>luvvv.lexiiiiii</t>
+          <t>katiegarcia_04</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>austin_h_2</t>
+          <t>_moneyman_dre_</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>micah_b25</t>
+          <t>rkdxpwns</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>alysserojas</t>
+          <t>kennedydempsey359</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>zo_zwon26</t>
+          <t>5678qq_</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>andy.thef1ash</t>
+          <t>kennethjannee</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>132cat13</t>
+          <t>mar10party</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lane__ack</t>
+          <t>kphig.chi</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>dhruvit_sharma</t>
+          <t>hursh_ag</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>rynesofine</t>
+          <t>not.rito</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>nevar_ez</t>
+          <t>nashit_23</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>shyam.narayanann</t>
+          <t>sugiuralyo</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>lilliannn.05</t>
+          <t>franco_hqf</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>_alymueller</t>
+          <t>ca.meronasher</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>kristaldelatorre</t>
+          <t>liubrighton</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>zhilihou</t>
+          <t>izzy.murphy12</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>andygarcia_swa</t>
+          <t>justmadi_ca</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>diana_nanos</t>
+          <t>samiramasudd</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>emma.romberg</t>
+          <t>percy_weir_personal</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>eilinzhng</t>
+          <t>jayugandhi</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>kayleesyvone</t>
+          <t>erika_20192</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>janet_leon05</t>
+          <t>sathvik_9</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>mel_lisamurray</t>
+          <t>vervinf</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>marifer_724</t>
+          <t>taniajanos</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>aditik135</t>
+          <t>ccuocu_</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>jenna.r16</t>
+          <t>jyodaggu</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>fermifaraday</t>
+          <t>yunow67</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>anujaysurana</t>
+          <t>lpanda09</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>brookdelacruz</t>
+          <t>madisonlynnscott</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>sahil_j99</t>
+          <t>sara.davisonn</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>mytcheltaylor</t>
+          <t>drarunimamath</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>alexoninstafr</t>
+          <t>akkutadvi16</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>chuck_chev23</t>
+          <t>irisc575</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>sophiarzich</t>
+          <t>lllllshahadlllll</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>roeder.hannah</t>
+          <t>article12736</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>monahan_james</t>
+          <t>lucinda.dear</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>elianna.ripstein</t>
+          <t>moleek_02</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>dsul1</t>
+          <t>little_sun_rico</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1223vinny</t>
+          <t>zach_zmuda_</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>mikayla_nelsonn</t>
+          <t>reggie.reggie_</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>bella.mae7725</t>
+          <t>big_momma_t_01</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>avni.18.27</t>
+          <t>biiliibiilii2020</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>lucy.elvart</t>
+          <t>isiahrogers23</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>maxwell_gentry_soccer</t>
+          <t>nad_ah68</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sbozzi15</t>
+          <t>isab.ellaliii</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,107 +1648,107 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>chuv__b</t>
+          <t>vani.mp_</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>sapre.shivani</t>
+          <t>tylershelmadine</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>erika_20192</t>
+          <t>5oumil</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>heavenly_deamonn</t>
+          <t>zhangpapers004</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>_alinapatel_</t>
+          <t>drwillobrien</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>keiji_oshiro</t>
+          <t>original_mh</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ilovepinkmasks</t>
+          <t>willhoene</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ximenaa.enriquez</t>
+          <t>simonyurr</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>franniechevalier</t>
+          <t>fagen_scooters</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>mzagorski4</t>
+          <t>pritika.aggarwal</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ke_vin_lu</t>
+          <t>jack_bertulis</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>chjjdjjhg</t>
+          <t>yvonneww_ou</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>pilargenesi</t>
+          <t>jconn_21</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>bdao_27</t>
+          <t>joy_262828</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ossidons</t>
+          <t>lea.keim2</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>arin_tongdee</t>
+          <t>isabel_huang_</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>_julian.guerrero_</t>
+          <t>nikhibhaskar04</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>victoriaczarnik</t>
+          <t>jiefudi</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>arshiyaxanand</t>
+          <t>michaelamichalovaharcarikova</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>grinnu</t>
+          <t>marcy_r_m</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>raj.thadani23</t>
+          <t>resit_kuseyri</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>kardom</t>
+          <t>daniel_leon54</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>niki_c.c.v</t>
+          <t>k4llinn</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>alif.badaawi</t>
+          <t>clarebredemann</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tylew135</t>
+          <t>aaronshen_ca</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>_diptigandhi</t>
+          <t>prettykajolmin</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>shannonfar_</t>
+          <t>grace.zhang8</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ayushmajumdar14</t>
+          <t>seungyeon_0613</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>omars812</t>
+          <t>janehaun</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>mdavies28</t>
+          <t>iamnotmikes</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>illini_dads</t>
+          <t>bass.amee</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>avarpena</t>
+          <t>junho308</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ella_3715</t>
+          <t>x.ami.27</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>jimiracle00</t>
+          <t>rishabbbs</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>mich.8214</t>
+          <t>victorlacr0ix</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>nedu__xvii</t>
+          <t>frequentlypastt</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>robertson0533</t>
+          <t>navya_uiuc_socializing</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>vaanathi_c</t>
+          <t>nefertitiqueen99</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>nayevaz29</t>
+          <t>young_liu13</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>cyh_.dzw</t>
+          <t>cakebydapounddd</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>19aryanchau</t>
+          <t>ayden_russo</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>yuda.hua</t>
+          <t>susssssieeee</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>s.hubhra.m.oudgil</t>
+          <t>aadith_2010</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>r.cordova.25</t>
+          <t>mperdomotorres</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>emmy_novo</t>
+          <t>anco7498</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>minhaxerox</t>
+          <t>cecille_95</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>jane.pruitt</t>
+          <t>reitzetk</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>sooraj.ali.1</t>
+          <t>joelpowersege</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>adampatel05_</t>
+          <t>bslatt14</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>benjamin_wanggggg</t>
+          <t>joseyfrerichs</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>justpeachiethx</t>
+          <t>jay_e0728</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>alexlleskaj17</t>
+          <t>mich.8214</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>tamarrowww</t>
+          <t>p_ram553</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>wero.nika005</t>
+          <t>amaliasempere</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>abby_trieger</t>
+          <t>jaydenwasgone</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>nonoko_momo</t>
+          <t>a.lara1</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>grace.yaako</t>
+          <t>arivanbl1517</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sknanchang</t>
+          <t>boilercub31</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ellyjkur</t>
+          <t>jal.amado</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>dolatiee</t>
+          <t>alexandra_kania1</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>tylerfrisoni</t>
+          <t>dangireena</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>3hm25</t>
+          <t>http.briaaa</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>paa_wellness_</t>
+          <t>kevinyang225</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>adit.agarwal_</t>
+          <t>m03power</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>get.mesomecannabis</t>
+          <t>tylinthe3rd</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>vicky_piela</t>
+          <t>lebronto76</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>lillydinkov</t>
+          <t>gsandi11</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>danthemanbueno</t>
+          <t>anniejsg</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>j.lee.0107</t>
+          <t>ryann.chiou</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>imz_deeaad</t>
+          <t>kayykayy_9</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>mohitkbhasin</t>
+          <t>daniiell__ca</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ndevir31</t>
+          <t>euniceskimm</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>marissabivens</t>
+          <t>bodamourya</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>vivekan_kumar_</t>
+          <t>nunley_benjamin_01</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>knotcaro</t>
+          <t>crimanal_eashak</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>myrka_chu</t>
+          <t>benjamingodinez_</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>johnchulos</t>
+          <t>_floresjuann</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sofia._.noelle</t>
+          <t>nhwt.114</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>belli_nwilliams</t>
+          <t>maggie.____18</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>caden_johnson011</t>
+          <t>zsheng_liu</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>kevinator11373</t>
+          <t>leopirsal</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>leezhu_7</t>
+          <t>d3metriaus</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>char_mersinger</t>
+          <t>nomad91205</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>amy_amy786786</t>
+          <t>surjabha.pal</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>grp.04</t>
+          <t>corrin.mo</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>jgar_29</t>
+          <t>tony_willams_fx96</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>n.s156</t>
+          <t>zqub04</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>danijela.milivojevic</t>
+          <t>kasauiuc</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>krish_chadha.11</t>
+          <t>will_homie</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>vfcool</t>
+          <t>swsyqqqq</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>madler14</t>
+          <t>sheetalmehta23</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>johnmdavis19</t>
+          <t>eccentric_chin_pop_up_records</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>jaydon_ch</t>
+          <t>anuj_bala445</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>sa_njaya166</t>
+          <t>ryuheejung68</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>anna.shukhter</t>
+          <t>gabybilotich</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>c_jjes3</t>
+          <t>rdakotal</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>sara__eddington</t>
+          <t>oluwakayode696_</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>dariakuznetsova112</t>
+          <t>supermonkey472</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>marwanhamoui</t>
+          <t>sjyusuf32</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>christinatresslar</t>
+          <t>meserveymaddax</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>rj_24242424</t>
+          <t>miiiiichael_11</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>d3metriaus</t>
+          <t>curtislam485</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>syehyderj</t>
+          <t>ayu_k2004</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>riley.cushing13</t>
+          <t>jademartinezco</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>nancye_9</t>
+          <t>michael.k_iryl</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>josiavc</t>
+          <t>kimba0209</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ijustdunnodunnodunno</t>
+          <t>priestess_quintanilla</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>kiya_potato</t>
+          <t>jkwillison528</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ratikiyer</t>
+          <t>leealex8865</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>karen07.cate</t>
+          <t>traff2105</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>jake.besic</t>
+          <t>priyapatiii</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>daush_softball_</t>
+          <t>bethell16_</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>james.divito</t>
+          <t>scindhia_ruban</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>_.aanya._</t>
+          <t>wright430</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>mperdomotorres</t>
+          <t>fiooochen</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>emily.alv13</t>
+          <t>kantilalpaghdal</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>felic_ia6442</t>
+          <t>j_b.jordin</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>jupiterpeter1225</t>
+          <t>adityadave_</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>maddieburriesci</t>
+          <t>eros_dev_</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>pacificaongreen</t>
+          <t>polarbearbennn</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>christy_vlahandreas</t>
+          <t>michit20200</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>nooman.87</t>
+          <t>gallo.perez217</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>samikshagupta48</t>
+          <t>kchrz12</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>lifeofjack20</t>
+          <t>ana101804</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>abr.esq</t>
+          <t>yylee_040914</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ashleyleah15</t>
+          <t>ramosjosiah5</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>minh.phant</t>
+          <t>manush_raj_</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ig.dustin</t>
+          <t>ben_jjam_iin</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>matthewhyman_</t>
+          <t>trinityychoi</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>steph_ine00</t>
+          <t>__.itsniyaaa</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>leslie.motaa</t>
+          <t>zitongwwww</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>iaa.2357</t>
+          <t>kalyanisasturkar</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>emilyhoff.roseman</t>
+          <t>jn09_22</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>tatedowns34</t>
+          <t>joycerock64</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ethan.lobraco</t>
+          <t>jp.perez5273</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>tya_chandra56</t>
+          <t>ricksalpeter</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>oii_sabina_7</t>
+          <t>codreerts.jo</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>chaseqiu.2024</t>
+          <t>butters3491</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>hursh_ag</t>
+          <t>tomo041104</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>mahoneykiley</t>
+          <t>zxkev1n</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>marissaposnerr</t>
+          <t>chandana_udupa_</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>akshatagrawal108</t>
+          <t>chonsunglee</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>qyf541</t>
+          <t>alexmk.777</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>charles_md_</t>
+          <t>chionfessions</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>shaunathan_sg</t>
+          <t>nicolelaguna</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>hanruishi</t>
+          <t>chikaoinag</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>cathy._.0122</t>
+          <t>tina___han</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>huntercox_1</t>
+          <t>clara_micheal20</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>jordanbass25</t>
+          <t>ansh.tulsyan</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>kingjoe5555</t>
+          <t>chris__topher__5</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>elpida_cios</t>
+          <t>everittcheng</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>premalathavivekan</t>
+          <t>victoria_kennedyqiu</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>kambrelw</t>
+          <t>janelyy.ruiz.xx</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ritasidharta</t>
+          <t>veena.hall12</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>benpilarski1</t>
+          <t>minhaxerox</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>gracethenight</t>
+          <t>gaurika.khillan</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>nijan20023</t>
+          <t>neshaarmani</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>amiyaadenae</t>
+          <t>ethan_hendrickson4</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>shilpa511</t>
+          <t>xia.papers51</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>shwood13</t>
+          <t>shitalagarwal_</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>nathanwhitakerr</t>
+          <t>bhjelms</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>gaurika.khillan</t>
+          <t>y.lo2n</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>paul.garciax</t>
+          <t>jerrynee0106</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>sharada_kunjir</t>
+          <t>averybell306</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>danny_duff</t>
+          <t>derekdd.lth</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>alexis.fornero</t>
+          <t>megan_sy_</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>islebrz12</t>
+          <t>asxxjad</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>zaydthehead</t>
+          <t>yassineg05</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>dicianni05</t>
+          <t>sasikalaramaswamy</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>s.__.jjun</t>
+          <t>da.tree.park</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>joy_262828</t>
+          <t>nick_close98</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>hannah_lynchey</t>
+          <t>ben_norris3</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>vraj.patel5</t>
+          <t>shuangshuang.clare</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>sarabrown0487</t>
+          <t>smash.ash4</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>imleslie_c</t>
+          <t>kaysharon664</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>chikaoinag</t>
+          <t>oria.lprvk</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>cajunb34tz</t>
+          <t>osamasorial</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ash_spore</t>
+          <t>rahi7317_</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>liz_hockenberry07</t>
+          <t>j.j.m_23</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>sunnystella2</t>
+          <t>adam.johnson260</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>navabhi25601</t>
+          <t>scarlett110525</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ellazaz_</t>
+          <t>dheereja</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>jorden.walker35</t>
+          <t>cipriani284</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>arivanbl1517</t>
+          <t>loserboy1547</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>jasonborochin</t>
+          <t>psi_litos</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>bella_17_jieeee</t>
+          <t>adwit.satyawadi</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>netsh_sasi</t>
+          <t>thereal._kylie</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>maxwell_mullarkey</t>
+          <t>hinjs14</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>benwolper</t>
+          <t>ethanheinzel_7</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>nisha.elengaya</t>
+          <t>snowflakeee15</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>dianastrugariuu</t>
+          <t>connorpham05</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>drewb150</t>
+          <t>minkatheleo</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>jack_mclane23</t>
+          <t>chloeculen</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>tenniyahh_</t>
+          <t>sofiieruth</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ella.graeb</t>
+          <t>leo.h.pedro</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>kumarsatendra184030</t>
+          <t>rionamerchant_</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>pppppeteryu</t>
+          <t>schaferguiney</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>_yadvesh_</t>
+          <t>laurel8171</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>3lysian.png</t>
+          <t>sophjkang</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>tongzhang352</t>
+          <t>ldwsrymswdkhmys</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>andrew.park23</t>
+          <t>a_alyousif</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>jeremiah_guiwargis</t>
+          <t>md_____sarfeaz_</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>michael_rosy88</t>
+          <t>thas_emma</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>osamasorial</t>
+          <t>yemaozida</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>farris17_</t>
+          <t>johngalletta918</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>jess2_d</t>
+          <t>tricianyc8</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>matt_tarnow</t>
+          <t>saadiscool2004</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>a_owls721</t>
+          <t>lsanson1987</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>yeefi01</t>
+          <t>sebastianhess23</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>peterishere334</t>
+          <t>h1s_phyco_lover666</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>alexmathew411</t>
+          <t>lyngao63</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>lucass.ross</t>
+          <t>_atharwah</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>sanaabasharr</t>
+          <t>quetzali_rodriguez22</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>chris_mitchell2</t>
+          <t>ben.yimm</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>naomispells</t>
+          <t>ask_ib_</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>katecollinn</t>
+          <t>karismamanglore</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>naomi_cook_</t>
+          <t>you_knohoe</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>hingopingo</t>
+          <t>gracieerippy</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>emilyrizzo06</t>
+          <t>shawnwasnt_.here</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>cadencelyn.7523</t>
+          <t>john_cicekk</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>everittcheng</t>
+          <t>a.ugustiinee</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>amee9595</t>
+          <t>missdina34</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>vdnt_g</t>
+          <t>christinen2900</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>gmadhavi</t>
+          <t>rexli1110</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>saadiscool2004</t>
+          <t>elias_josue18</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>jackm0527</t>
+          <t>jesuschontalchagala</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>hitanshi._25</t>
+          <t>xoticent</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ashley.lamberti_</t>
+          <t>jessica.4976</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>grace_klenke</t>
+          <t>mary3585love</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>iydenkhan</t>
+          <t>miiaa.delgado</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>_ishaapatell</t>
+          <t>juliedillon59</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>katiegrich</t>
+          <t>_akheeel_</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>lorikelly33</t>
+          <t>kobany888</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>graham_radina_</t>
+          <t>ax.cn05</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>schaferguiney</t>
+          <t>ruby_hrodriguez</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>uicru</t>
+          <t>ppanarese22</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>maya.menonn</t>
+          <t>andrewspilotro</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>cristinacalinescu_4732</t>
+          <t>xyc_uu</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>mitchcg1223</t>
+          <t>sophie_lechleitner</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>aadam_suleman</t>
+          <t>an.av0cado</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>annie.mayer</t>
+          <t>aarizela</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>aaditya.halkara</t>
+          <t>teddy9a</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>elli.eeaton</t>
+          <t>victbacqde</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>a5d3a79</t>
+          <t>alaknantha</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>eric_w_06</t>
+          <t>kvlsujatha</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>kamilaxnavarro</t>
+          <t>suzer636</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>_samydriss</t>
+          <t>andy.thef1ash</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>chiti_lavanka_</t>
+          <t>finger_crossed_kw</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>jprazzo</t>
+          <t>birdhouse.in.your.soul</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>danica_jo_johnson</t>
+          <t>sarahz857</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ayu_k2004</t>
+          <t>joshhh.ronquillo</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>matthewsuruadji</t>
+          <t>nini___1113</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>requiefius_iii</t>
+          <t>def_someone</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>nikkidevarapalli</t>
+          <t>bill._.peng</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>sophia.zisterer</t>
+          <t>kyrieseth</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>rupn2018</t>
+          <t>ryan4538357</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>iroh7287</t>
+          <t>leenaawadd</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>samikjsingh</t>
+          <t>babab.282</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>nolimit_lxn.dxn</t>
+          <t>mcuevas320</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>victoria_celedon_</t>
+          <t>skylerwilliams2006</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>luciaweave</t>
+          <t>jensen.weedman</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>cjillian_49</t>
+          <t>greghuang2000</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>gabeguz5</t>
+          <t>tonyli117dd</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>boilercub31</t>
+          <t>mayachahine2</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>lhamilton1804</t>
+          <t>yyxinnnn</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>lillian.davis15</t>
+          <t>csperker</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>rcodonnell5231</t>
+          <t>fusunpetek</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ppeterpan_s</t>
+          <t>dshiffrin</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>patsmithgaming</t>
+          <t>_gianlucahernandez_</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>lilahranz</t>
+          <t>gabbymboyo</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>sraman236</t>
+          <t>lubna_khaseeb</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>scott.n.wolter</t>
+          <t>alper_karakurt</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>_haryjun</t>
+          <t>alice_ayyy</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>jadefilednotes</t>
+          <t>cellularpotat</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>daniel_manevich24</t>
+          <t>l.r.wylie</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>aalvarez111904</t>
+          <t>angelafosterrice</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>juan_sanchez555</t>
+          <t>inthecaro5</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>amiyaphillipssmith</t>
+          <t>erin.w.newman</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>us_asssignment_due2</t>
+          <t>meredith.benzar4</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>le_ozeng</t>
+          <t>cece16i</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>bruce_caligula05</t>
+          <t>jeong_yeonghae</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>jbwed1112</t>
+          <t>poornabonda</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>frmero_</t>
+          <t>terry12405</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>yuemin_y</t>
+          <t>s.__.jjun</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>haley_redmond_</t>
+          <t>shushi.meng</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>dmlarry0</t>
+          <t>nourishingmydreams</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>erikbergmark73</t>
+          <t>alevtyna_rypninska</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>vedhap10</t>
+          <t>roger.carstens</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>marlenamiloucheva</t>
+          <t>paul_is_still_a_person</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>iamsir.jordan5</t>
+          <t>elmer_park1015</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>shaw.ryder</t>
+          <t>harshin_2401</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>maddisonmlady</t>
+          <t>robertson0533</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>declan_goggin</t>
+          <t>touhou__enjoyer</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>rufatillinois</t>
+          <t>izumi.sato.503</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>adhityan_tamilselvan</t>
+          <t>antoniomunoz193</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>lila_dett</t>
+          <t>idkdasean</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ubin.kw</t>
+          <t>luv.vaallll</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>h_hoekstra3</t>
+          <t>chrislishuqi</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>_alimzhanova_k_</t>
+          <t>5_swans</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>hongshuwang6</t>
+          <t>martttttty_zhang</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>jpgarrity1</t>
+          <t>maxine_42</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>shendonald</t>
+          <t>sergio_v551</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>that1guy_alejandro</t>
+          <t>benitajones235</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>lucybrutlag</t>
+          <t>natural.270</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>sofija_grujic</t>
+          <t>jin_yxhan7</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>dr.aparnaayyagari</t>
+          <t>jenny._lopez._</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>usmanqqqu</t>
+          <t>jeffuchen</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>gregory.hirsch8</t>
+          <t>h_jason_assa</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>silly.molly</t>
+          <t>gabeguz5</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>broccoli_patty</t>
+          <t>chieng_papers21</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>genay.belotserkovskiy</t>
+          <t>bella_17_jieeee</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>saya.spells</t>
+          <t>alexoninstafr</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>patrick_schraeder</t>
+          <t>danielle.eng1</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>lavender_salas</t>
+          <t>jack.muhvic</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>maryghobrial</t>
+          <t>your_big_man_big_dogg</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>jackiekogenn</t>
+          <t>marth_ra</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>metztlim363</t>
+          <t>will.ciastko</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>brady_05_15</t>
+          <t>grvy_dhrvy</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>that1nerd_peter</t>
+          <t>jazzyvazz</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>jacobdunlap33</t>
+          <t>ni_cole2178</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>yaolin577</t>
+          <t>hnaansantosa</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>jalisco_.in._chicago</t>
+          <t>feiyi757</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>lmichel17</t>
+          <t>a803lan</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>keilygambino</t>
+          <t>elfati4ever</t>
         </is>
       </c>
       <c r="B445" t="b">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>its.valerix</t>
+          <t>phoenixsand4</t>
         </is>
       </c>
       <c r="B446" t="b">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>yaxin4085</t>
+          <t>wby51015</t>
         </is>
       </c>
       <c r="B447" t="b">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>mighty.bura</t>
+          <t>colin.tbrown</t>
         </is>
       </c>
       <c r="B448" t="b">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>sam.horn04</t>
+          <t>jraftery16</t>
         </is>
       </c>
       <c r="B449" t="b">
@@ -4928,10 +4928,500 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>shaun.m19</t>
+          <t>strawhat_girl_2835</t>
         </is>
       </c>
       <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>frankjitnatra</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>matt.deepandblue</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>asher.st3wart</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>sonika_tam</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>rmhenderson03</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>az_s.u.s.i</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>hebeeeli</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>uyisama</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>da._.boii</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>andyquan9</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>asdfghjklzxcvbnm0403</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>_bcha19</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>chrissss_zzzz</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>broccoli_patty</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>lslampert2</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>yuhanchi9</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>hreds_</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>sssssssmssssss_</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>rxszheng</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>jennifertecorralco</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>liz._.mun</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>brownies.helen</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>michellegwarth</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>chris_mitchell2</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>uiuc_icf</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>jirikataman</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>gbburtner</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>marrisjoe69</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>athe.nathequeen</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>_yadvesh_</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>i.siss_18</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>ben_dalbey</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>hollyf04</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>cequilloy</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>emmafstock</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>eshaaggarwal1</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>chanellyhdz</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>ben.bandzzz</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>andreyvlas0v</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>_withselene</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>domzzie._</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>sam_zajczenko</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>alina__abccde</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>jenjen10174812</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>marianavega2024</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>craftycrustacean</t>
+        </is>
+      </c>
+      <c r="B496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>ejsinger</t>
+        </is>
+      </c>
+      <c r="B497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>vishyelamanchili</t>
+        </is>
+      </c>
+      <c r="B498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>emily_tedford</t>
+        </is>
+      </c>
+      <c r="B499" t="b">
         <v>0</v>
       </c>
     </row>
